--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3974202.638674841</v>
+        <v>3969819.097834043</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9975138.252205901</v>
+        <v>9964927.035287932</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>429604.7259431071</v>
+        <v>430763.7823717225</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7451455.298339725</v>
+        <v>7451601.610615647</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>26.53815412835747</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>4.225249826173272</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G4" t="n">
-        <v>9.461970681989468</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>105.6875942894366</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>318.4831320324884</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X7" t="n">
-        <v>224.9913792784362</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>394.2659009230723</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>15.14483238681376</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>39.10494780290173</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1466,7 +1466,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1548,7 +1548,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>141.672239911802</v>
+        <v>235.7082316332965</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1703,7 +1703,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>64.44601915224106</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T16" t="n">
-        <v>16.75765473768391</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1861,7 +1861,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045442</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U17" t="n">
         <v>250.9088959876463</v>
@@ -1940,7 +1940,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>64.44601915224105</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>134.0502453841887</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060082062</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U20" t="n">
         <v>250.9088959876463</v>
@@ -2177,7 +2177,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>81.03870116263805</v>
+        <v>64.44601915224102</v>
       </c>
       <c r="G22" t="n">
         <v>165.5420528771669</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T23" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U23" t="n">
         <v>250.9088959876463</v>
@@ -2414,7 +2414,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>83.07736723265648</v>
       </c>
       <c r="G25" t="n">
         <v>165.5420528771669</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S25" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T25" t="n">
-        <v>11.790596506707</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U25" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127591</v>
       </c>
       <c r="H26" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045442</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T26" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374736</v>
       </c>
       <c r="U26" t="n">
         <v>250.9088959876463</v>
@@ -2651,7 +2651,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T27" t="n">
         <v>188.3907690366107</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>54.74244813805186</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>140.453989791954</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440925</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.1807515910839</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T28" t="n">
         <v>217.4819944627618</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>149.7016847493216</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H29" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T29" t="n">
         <v>199.1970568374742</v>
@@ -2888,7 +2888,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T30" t="n">
         <v>188.3907690366107</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>89.5340822374514</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.453989791954</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
         <v>217.4819944627618</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>184.1058368358647</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>3.132302579337523</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.453989791954</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440925</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.1807515910839</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.3384883584591</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>93.78160283572005</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060082152</v>
       </c>
       <c r="T35" t="n">
         <v>199.1970568374742</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5420528771669</v>
@@ -3444,7 +3444,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S37" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4819944627618</v>
+        <v>141.4740238230462</v>
       </c>
       <c r="U37" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V37" t="n">
-        <v>49.48281704322427</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3523,7 +3523,7 @@
         <v>283.5630920045443</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.64365685812864e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876464</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>64.44601915223832</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>3.132302579345541</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S40" t="n">
         <v>181.338488358459</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8432760127575</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H41" t="n">
         <v>283.5630920045443</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081953</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T41" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.908895987647</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1854515484204</v>
+        <v>116.2536406080632</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>52.15592437408569</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4070,10 +4070,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.51491006411268</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>18.92873806063739</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1345.301239238533</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C2" t="n">
-        <v>1345.301239238533</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2670.342874726952</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2670.342874726952</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2670.342874726952</v>
       </c>
       <c r="U2" t="n">
-        <v>2461.674984745539</v>
+        <v>2670.342874726952</v>
       </c>
       <c r="V2" t="n">
-        <v>2461.674984745539</v>
+        <v>2339.279987383381</v>
       </c>
       <c r="W2" t="n">
-        <v>2108.906329475425</v>
+        <v>1986.511332113267</v>
       </c>
       <c r="X2" t="n">
-        <v>1735.440571214345</v>
+        <v>1613.045573852188</v>
       </c>
       <c r="Y2" t="n">
-        <v>1345.301239238533</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="3">
@@ -4400,25 +4400,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63.50052796378816</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>63.50052796378816</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D4" t="n">
-        <v>63.50052796378816</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E4" t="n">
-        <v>63.50052796378816</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F4" t="n">
-        <v>63.50052796378816</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>63.50052796378816</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>63.50052796378816</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>63.50052796378816</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>63.50052796378816</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>63.50052796378816</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>555.4725825998845</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C5" t="n">
-        <v>555.4725825998845</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="D5" t="n">
-        <v>555.4725825998845</v>
+        <v>957.4722849551219</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>571.6840323568777</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>160.6981275672701</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1671.84632810689</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1319.077672836776</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>945.6119145756962</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>555.4725825998845</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4655,10 +4655,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4667,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4761,16 +4761,16 @@
         <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1315.737983561873</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C8" t="n">
-        <v>946.7754666214612</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>946.7754666214612</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>946.7754666214612</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2350.788393182921</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.477155601806</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y8" t="n">
-        <v>1702.337823625995</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>659.2121177843979</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>404.5276295785111</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W10" t="n">
-        <v>404.5276295785111</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X10" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5023,70 +5023,70 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D11" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E11" t="n">
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G11" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H11" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160698</v>
       </c>
       <c r="I11" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160698</v>
       </c>
       <c r="J11" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K11" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384019</v>
       </c>
       <c r="L11" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M11" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N11" t="n">
-        <v>2971.58344915112</v>
+        <v>2971.583449151118</v>
       </c>
       <c r="O11" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610257</v>
       </c>
       <c r="P11" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q11" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403611</v>
       </c>
       <c r="R11" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580349</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347198</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.740996026518</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746067</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402496</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132382</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871302</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.86103389549</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H12" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160698</v>
       </c>
       <c r="I12" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160698</v>
       </c>
       <c r="J12" t="n">
-        <v>94.88738072612961</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K12" t="n">
-        <v>425.3961232894883</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L12" t="n">
-        <v>916.1284561332395</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M12" t="n">
-        <v>916.1284561332395</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.224419532576</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="O12" t="n">
-        <v>2085.10089453277</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P12" t="n">
-        <v>2504.684412958846</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.812354695766</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>930.4858260316502</v>
+        <v>1016.791123359144</v>
       </c>
       <c r="C13" t="n">
-        <v>930.4858260316502</v>
+        <v>847.854940431237</v>
       </c>
       <c r="D13" t="n">
-        <v>780.3691866193144</v>
+        <v>697.7383010189012</v>
       </c>
       <c r="E13" t="n">
-        <v>632.4560930369213</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="F13" t="n">
-        <v>485.566145539011</v>
+        <v>402.9352599385977</v>
       </c>
       <c r="G13" t="n">
-        <v>318.3519507135898</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H13" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160698</v>
       </c>
       <c r="I13" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160698</v>
       </c>
       <c r="J13" t="n">
         <v>172.8304710411609</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117245</v>
       </c>
       <c r="L13" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948588</v>
       </c>
       <c r="M13" t="n">
         <v>1239.450608139318</v>
@@ -5217,34 +5217,34 @@
         <v>2021.168930946055</v>
       </c>
       <c r="P13" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q13" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R13" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="S13" t="n">
-        <v>2178.382964033126</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="T13" t="n">
-        <v>1958.704181747508</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="U13" t="n">
-        <v>1815.600909109324</v>
+        <v>2191.323376473778</v>
       </c>
       <c r="V13" t="n">
-        <v>1560.916420903437</v>
+        <v>1936.638888267892</v>
       </c>
       <c r="W13" t="n">
-        <v>1560.916420903437</v>
+        <v>1647.221718230931</v>
       </c>
       <c r="X13" t="n">
-        <v>1332.92687000542</v>
+        <v>1419.232167332914</v>
       </c>
       <c r="Y13" t="n">
-        <v>1112.13429086189</v>
+        <v>1198.439588189384</v>
       </c>
     </row>
     <row r="14">
@@ -5266,40 +5266,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I14" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3442236507199</v>
+        <v>424.1437450015126</v>
       </c>
       <c r="K14" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287891952</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294971</v>
       </c>
       <c r="M14" t="n">
-        <v>2234.298471234014</v>
+        <v>2234.298471234009</v>
       </c>
       <c r="N14" t="n">
-        <v>2971.58344915112</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O14" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P14" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R14" t="n">
         <v>4692.417407580351</v>
@@ -5314,16 +5314,16 @@
         <v>4152.297666746068</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I15" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J15" t="n">
-        <v>94.88738072612961</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K15" t="n">
-        <v>425.3961232894883</v>
+        <v>302.0892292003537</v>
       </c>
       <c r="L15" t="n">
-        <v>916.1284561332395</v>
+        <v>792.8215620441057</v>
       </c>
       <c r="M15" t="n">
-        <v>965.2563978701601</v>
+        <v>1384.839916296234</v>
       </c>
       <c r="N15" t="n">
-        <v>1587.352361269496</v>
+        <v>2006.935879695571</v>
       </c>
       <c r="O15" t="n">
-        <v>2134.22883626969</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P15" t="n">
         <v>2553.812354695766</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.5320614616468</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C16" t="n">
-        <v>783.5958785337399</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="D16" t="n">
-        <v>633.4792391214041</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="E16" t="n">
-        <v>485.566145539011</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="F16" t="n">
-        <v>485.566145539011</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="G16" t="n">
-        <v>318.3519507135898</v>
+        <v>158.9453371942748</v>
       </c>
       <c r="H16" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I16" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J16" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L16" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M16" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N16" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O16" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P16" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q16" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R16" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S16" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T16" t="n">
-        <v>2161.456040055667</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U16" t="n">
-        <v>1872.379826370395</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V16" t="n">
-        <v>1872.379826370395</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.962656333434</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.973105435417</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y16" t="n">
-        <v>1134.180526291887</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D17" t="n">
         <v>1591.032978284208</v>
@@ -5503,34 +5503,34 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I17" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J17" t="n">
-        <v>373.3442236507199</v>
+        <v>424.1437450015135</v>
       </c>
       <c r="K17" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287891961</v>
       </c>
       <c r="L17" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294972</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.29847123401</v>
       </c>
       <c r="N17" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.583449151117</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610257</v>
       </c>
       <c r="P17" t="n">
         <v>4202.751434297606</v>
@@ -5539,28 +5539,28 @@
         <v>4566.333620403613</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T17" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X17" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H18" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I18" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J18" t="n">
-        <v>94.88738072612961</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K18" t="n">
-        <v>94.88738072612961</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="L18" t="n">
-        <v>585.6197135698808</v>
+        <v>373.2380436180293</v>
       </c>
       <c r="M18" t="n">
-        <v>929.9301936362499</v>
+        <v>965.2563978701578</v>
       </c>
       <c r="N18" t="n">
-        <v>1552.026157035586</v>
+        <v>1587.352361269495</v>
       </c>
       <c r="O18" t="n">
-        <v>2098.90263203578</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P18" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q18" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R18" t="n">
         <v>2553.812354695766</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.9011758612336</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C19" t="n">
-        <v>700.9649929333267</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="D19" t="n">
-        <v>550.8483535209909</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="E19" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="F19" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="G19" t="n">
-        <v>235.7210651131766</v>
+        <v>158.9453371942748</v>
       </c>
       <c r="H19" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I19" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L19" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M19" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N19" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R19" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S19" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T19" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U19" t="n">
-        <v>1669.627968062235</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V19" t="n">
-        <v>1414.943479856348</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W19" t="n">
-        <v>1414.943479856348</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X19" t="n">
-        <v>1186.953928958331</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.549640691473</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="20">
@@ -5740,43 +5740,43 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507206</v>
       </c>
       <c r="K20" t="n">
-        <v>893.7741287892018</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L20" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M20" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N20" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O20" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P20" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q20" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R20" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S20" t="n">
         <v>4606.9501443472</v>
@@ -5825,31 +5825,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H21" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I21" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J21" t="n">
-        <v>242.5353624779755</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K21" t="n">
-        <v>573.0441050413343</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="L21" t="n">
-        <v>1063.776437885086</v>
+        <v>373.2380436180293</v>
       </c>
       <c r="M21" t="n">
-        <v>1063.776437885086</v>
+        <v>965.2563978701578</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.872401284422</v>
+        <v>1587.352361269495</v>
       </c>
       <c r="O21" t="n">
-        <v>2232.748876284616</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P21" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.812354695766</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>744.6035248193385</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C22" t="n">
-        <v>575.6673418914316</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="D22" t="n">
-        <v>425.5507024790959</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="E22" t="n">
-        <v>425.5507024790959</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="F22" t="n">
-        <v>343.6934285774413</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G22" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H22" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I22" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L22" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M22" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N22" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O22" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P22" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q22" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R22" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S22" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T22" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U22" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V22" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W22" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X22" t="n">
-        <v>965.3961039628687</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y22" t="n">
-        <v>744.6035248193385</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>794.2588208963562</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507198</v>
+        <v>424.1437450015126</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074384016</v>
+        <v>893.7741287891952</v>
       </c>
       <c r="L23" t="n">
-        <v>1513.293909294976</v>
+        <v>1513.293909294971</v>
       </c>
       <c r="M23" t="n">
-        <v>2234.298471234014</v>
+        <v>2234.298471234009</v>
       </c>
       <c r="N23" t="n">
-        <v>2971.58344915112</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R23" t="n">
         <v>4692.417407580351</v>
@@ -6068,25 +6068,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K24" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="L24" t="n">
-        <v>373.2380436180325</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="M24" t="n">
-        <v>965.2563978701601</v>
+        <v>833.5146841555818</v>
       </c>
       <c r="N24" t="n">
-        <v>1587.352361269496</v>
+        <v>1455.610647554919</v>
       </c>
       <c r="O24" t="n">
-        <v>2134.22883626969</v>
+        <v>2002.487122555114</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.812354695766</v>
+        <v>2422.070640981191</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.812354695766</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3220.554200242645</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C25" t="n">
-        <v>3051.618017314738</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="D25" t="n">
-        <v>2901.501377902402</v>
+        <v>344.979075535267</v>
       </c>
       <c r="E25" t="n">
-        <v>2753.588284320009</v>
+        <v>344.979075535267</v>
       </c>
       <c r="F25" t="n">
-        <v>2606.698336822099</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G25" t="n">
-        <v>2439.484141996677</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H25" t="n">
-        <v>2439.484141996677</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I25" t="n">
-        <v>2356.853256396264</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
-        <v>2435.835379285818</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K25" t="n">
-        <v>2695.464106256382</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L25" t="n">
-        <v>3083.225924339516</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M25" t="n">
-        <v>3502.455516383975</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N25" t="n">
-        <v>3917.151382175683</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O25" t="n">
-        <v>4284.173839190712</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P25" t="n">
-        <v>4574.704274026916</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q25" t="n">
-        <v>4692.417407580351</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R25" t="n">
-        <v>4624.558062538853</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S25" t="n">
-        <v>4441.387872277784</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T25" t="n">
-        <v>4429.478178836665</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U25" t="n">
-        <v>4140.401965151393</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V25" t="n">
-        <v>4140.401965151393</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W25" t="n">
-        <v>3850.984795114432</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X25" t="n">
-        <v>3622.995244216414</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y25" t="n">
-        <v>3402.202665072884</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D26" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.03297828421</v>
       </c>
       <c r="E26" t="n">
         <v>1205.244725685965</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963571</v>
+        <v>794.258820896358</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127636</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160777</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507186</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K26" t="n">
-        <v>893.7741287892195</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L26" t="n">
-        <v>1513.293909294992</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M26" t="n">
-        <v>2234.298471234026</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N26" t="n">
-        <v>2971.58344915113</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.445485610265</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P26" t="n">
-        <v>4202.751434297611</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403616</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R26" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S26" t="n">
         <v>4606.950144347201</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U26" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V26" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W26" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X26" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="27">
@@ -6281,61 +6281,61 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C27" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D27" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E27" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F27" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G27" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H27" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I27" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J27" t="n">
-        <v>93.84834815160706</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K27" t="n">
-        <v>424.3570907149644</v>
+        <v>302.0892292003568</v>
       </c>
       <c r="L27" t="n">
-        <v>734.6951238849206</v>
+        <v>792.8215620441082</v>
       </c>
       <c r="M27" t="n">
-        <v>734.6951238849206</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N27" t="n">
-        <v>1356.791087284254</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O27" t="n">
-        <v>1903.667562284447</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P27" t="n">
-        <v>2323.251080710521</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S27" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U27" t="n">
         <v>2016.877442379908</v>
@@ -6347,7 +6347,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y27" t="n">
         <v>1111.876178449477</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3067.623876123921</v>
+        <v>571.8714428665047</v>
       </c>
       <c r="C28" t="n">
-        <v>2898.687693196014</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="D28" t="n">
-        <v>2748.571053783678</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E28" t="n">
-        <v>2748.571053783678</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F28" t="n">
-        <v>2748.571053783678</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G28" t="n">
-        <v>2581.356858958257</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H28" t="n">
-        <v>2439.484141996687</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I28" t="n">
-        <v>2356.853256396274</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J28" t="n">
-        <v>2435.835379285827</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K28" t="n">
-        <v>2695.46410625639</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L28" t="n">
-        <v>3083.225924339523</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M28" t="n">
-        <v>3502.455516383981</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N28" t="n">
-        <v>3917.151382175687</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O28" t="n">
-        <v>4284.173839190716</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P28" t="n">
-        <v>4574.704274026919</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q28" t="n">
-        <v>4692.417407580353</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R28" t="n">
-        <v>4624.558062538854</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S28" t="n">
-        <v>4624.558062538854</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.879280253236</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U28" t="n">
-        <v>4115.803066567963</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V28" t="n">
-        <v>3861.118578362077</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W28" t="n">
-        <v>3571.701408325116</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X28" t="n">
-        <v>3343.711857427099</v>
+        <v>974.3124868402746</v>
       </c>
       <c r="Y28" t="n">
-        <v>3122.919278283569</v>
+        <v>753.5199076967444</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C29" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D29" t="n">
-        <v>1591.03297828421</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E29" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963575</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127638</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160774</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507186</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K29" t="n">
-        <v>842.9746074383984</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L29" t="n">
-        <v>1462.494387944171</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.498949883205</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N29" t="n">
-        <v>2971.58344915113</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O29" t="n">
-        <v>3654.445485610265</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P29" t="n">
-        <v>4202.751434297611</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q29" t="n">
-        <v>4566.333620403616</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U29" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V29" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W29" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X29" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="30">
@@ -6518,61 +6518,61 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C30" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D30" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E30" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F30" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G30" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>94.88738072612932</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
-        <v>94.88738072612932</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K30" t="n">
-        <v>425.3961232894867</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L30" t="n">
-        <v>526.9340838249598</v>
+        <v>241.496329903453</v>
       </c>
       <c r="M30" t="n">
-        <v>1118.952438077085</v>
+        <v>833.5146841555808</v>
       </c>
       <c r="N30" t="n">
-        <v>1741.048401476419</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O30" t="n">
-        <v>2287.924876476611</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P30" t="n">
-        <v>2287.924876476611</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q30" t="n">
-        <v>2518.486150461857</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S30" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U30" t="n">
         <v>2016.877442379908</v>
@@ -6584,7 +6584,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y30" t="n">
         <v>1111.876178449477</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>849.5769285337228</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C31" t="n">
-        <v>680.6407456058159</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D31" t="n">
-        <v>530.5241061934802</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E31" t="n">
-        <v>382.6110126110871</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F31" t="n">
-        <v>235.7210651131767</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G31" t="n">
-        <v>235.7210651131767</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H31" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I31" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J31" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M31" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N31" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O31" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R31" t="n">
-        <v>2429.412499335687</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S31" t="n">
-        <v>2429.412499335687</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T31" t="n">
-        <v>2209.733717050069</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U31" t="n">
-        <v>1920.657503364796</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V31" t="n">
-        <v>1665.973015158909</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W31" t="n">
-        <v>1480.00752340551</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X31" t="n">
-        <v>1252.017972507492</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y31" t="n">
-        <v>1031.225393363962</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="32">
@@ -6691,13 +6691,13 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127636</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160777</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J32" t="n">
         <v>373.3442236507186</v>
@@ -6715,19 +6715,19 @@
         <v>2920.783927800308</v>
       </c>
       <c r="O32" t="n">
-        <v>3603.645964259444</v>
+        <v>3654.445485610265</v>
       </c>
       <c r="P32" t="n">
-        <v>4202.75143429761</v>
+        <v>4202.751434297611</v>
       </c>
       <c r="Q32" t="n">
-        <v>4566.333620403615</v>
+        <v>4566.333620403616</v>
       </c>
       <c r="R32" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T32" t="n">
         <v>4405.740996026519</v>
@@ -6773,31 +6773,31 @@
         <v>178.7211392683895</v>
       </c>
       <c r="H33" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I33" t="n">
-        <v>94.88738072612931</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J33" t="n">
-        <v>174.0929316102684</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="K33" t="n">
-        <v>504.6016741736257</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="L33" t="n">
-        <v>995.3340070173751</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="M33" t="n">
-        <v>1587.352361269501</v>
+        <v>833.5146841555776</v>
       </c>
       <c r="N33" t="n">
-        <v>1587.352361269501</v>
+        <v>1356.791087284254</v>
       </c>
       <c r="O33" t="n">
-        <v>2134.228836269693</v>
+        <v>1903.667562284447</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.812354695767</v>
+        <v>2323.251080710521</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.812354695767</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1099.422008959557</v>
+        <v>562.9550599890908</v>
       </c>
       <c r="C34" t="n">
-        <v>930.4858260316505</v>
+        <v>394.018877061184</v>
       </c>
       <c r="D34" t="n">
-        <v>780.3691866193147</v>
+        <v>243.9022376488482</v>
       </c>
       <c r="E34" t="n">
-        <v>632.4560930369216</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F34" t="n">
-        <v>485.5661455390112</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="G34" t="n">
-        <v>318.3519507135901</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="H34" t="n">
-        <v>176.4792337520204</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I34" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J34" t="n">
         <v>172.8304710411604</v>
@@ -6882,28 +6882,28 @@
         <v>2429.412499335687</v>
       </c>
       <c r="R34" t="n">
-        <v>2361.553154294188</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="S34" t="n">
-        <v>2178.382964033118</v>
+        <v>2246.242309074617</v>
       </c>
       <c r="T34" t="n">
-        <v>1958.7041817475</v>
+        <v>2026.563526788999</v>
       </c>
       <c r="U34" t="n">
-        <v>1669.627968062227</v>
+        <v>1737.487313103726</v>
       </c>
       <c r="V34" t="n">
-        <v>1414.94347985634</v>
+        <v>1482.802824897839</v>
       </c>
       <c r="W34" t="n">
-        <v>1414.94347985634</v>
+        <v>1193.385654860878</v>
       </c>
       <c r="X34" t="n">
-        <v>1320.214588103087</v>
+        <v>965.3961039628607</v>
       </c>
       <c r="Y34" t="n">
-        <v>1099.422008959557</v>
+        <v>744.6035248193306</v>
       </c>
     </row>
     <row r="35">
@@ -6925,19 +6925,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963563</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G35" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160708</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160708</v>
       </c>
       <c r="J35" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K35" t="n">
         <v>842.974607438402</v>
@@ -6946,22 +6946,22 @@
         <v>1462.494387944177</v>
       </c>
       <c r="M35" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N35" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P35" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q35" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580354</v>
       </c>
       <c r="S35" t="n">
         <v>4606.950144347201</v>
@@ -7007,34 +7007,34 @@
         <v>314.5013895084599</v>
       </c>
       <c r="G36" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H36" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160708</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160708</v>
       </c>
       <c r="J36" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K36" t="n">
-        <v>424.3570907149658</v>
+        <v>302.0892292003568</v>
       </c>
       <c r="L36" t="n">
-        <v>689.5532446329793</v>
+        <v>792.8215620441082</v>
       </c>
       <c r="M36" t="n">
-        <v>1281.571598885107</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N36" t="n">
-        <v>1903.667562284443</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O36" t="n">
-        <v>1903.667562284443</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P36" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.812354695766</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>949.3053695472213</v>
+        <v>571.8714428665047</v>
       </c>
       <c r="C37" t="n">
-        <v>780.3691866193144</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="D37" t="n">
-        <v>780.3691866193144</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E37" t="n">
-        <v>632.4560930369213</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F37" t="n">
-        <v>485.5661455390109</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G37" t="n">
-        <v>318.3519507135898</v>
+        <v>235.7210651131767</v>
       </c>
       <c r="H37" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160708</v>
       </c>
       <c r="I37" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160708</v>
       </c>
       <c r="J37" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L37" t="n">
         <v>820.2210160948589</v>
@@ -7119,28 +7119,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S37" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>2026.563526789007</v>
+        <v>2035.479909666413</v>
       </c>
       <c r="U37" t="n">
-        <v>1737.487313103734</v>
+        <v>1746.403695981139</v>
       </c>
       <c r="V37" t="n">
-        <v>1687.504669625729</v>
+        <v>1491.719207775252</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.087499588769</v>
+        <v>1202.302037738292</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.097948690751</v>
+        <v>974.3124868402746</v>
       </c>
       <c r="Y37" t="n">
-        <v>949.3053695472213</v>
+        <v>753.5199076967444</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.03297828421</v>
       </c>
       <c r="E38" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963582</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127646</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160707</v>
+        <v>93.84834815160873</v>
       </c>
       <c r="I38" t="n">
         <v>93.84834815160704</v>
@@ -7186,7 +7186,7 @@
         <v>2183.498949883215</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.583449151121</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O38" t="n">
         <v>3654.445485610259</v>
@@ -7204,22 +7204,22 @@
         <v>4606.950144347201</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X38" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.84834815160704</v>
       </c>
       <c r="I39" t="n">
-        <v>94.88738072612963</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J39" t="n">
-        <v>242.5353624779756</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K39" t="n">
-        <v>242.5353624779756</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L39" t="n">
-        <v>242.5353624779756</v>
+        <v>241.496329903453</v>
       </c>
       <c r="M39" t="n">
-        <v>699.3689196510026</v>
+        <v>833.5146841555808</v>
       </c>
       <c r="N39" t="n">
-        <v>1321.464883050339</v>
+        <v>1455.610647554917</v>
       </c>
       <c r="O39" t="n">
-        <v>1868.341358050533</v>
+        <v>2002.487122555111</v>
       </c>
       <c r="P39" t="n">
-        <v>2287.924876476609</v>
+        <v>2422.070640981187</v>
       </c>
       <c r="Q39" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R39" t="n">
         <v>2553.812354695766</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>559.79111798976</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C40" t="n">
-        <v>390.8549350618531</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D40" t="n">
-        <v>240.7382956495174</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7382956495174</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F40" t="n">
-        <v>93.84834815160704</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G40" t="n">
         <v>93.84834815160704</v>
@@ -7356,28 +7356,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R40" t="n">
-        <v>2426.248557336356</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S40" t="n">
-        <v>2243.078367075286</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T40" t="n">
-        <v>2023.399584789668</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U40" t="n">
-        <v>1734.323371104395</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V40" t="n">
-        <v>1479.638882898508</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W40" t="n">
-        <v>1190.221712861547</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X40" t="n">
-        <v>962.2321619635298</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y40" t="n">
-        <v>741.4395828199997</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="41">
@@ -7399,13 +7399,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G41" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160703</v>
+        <v>93.848348151607</v>
       </c>
       <c r="I41" t="n">
         <v>93.84834815160703</v>
@@ -7417,16 +7417,16 @@
         <v>842.974607438402</v>
       </c>
       <c r="L41" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M41" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N41" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O41" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P41" t="n">
         <v>4202.751434297606</v>
@@ -7447,16 +7447,16 @@
         <v>4152.297666746068</v>
       </c>
       <c r="V41" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W41" t="n">
         <v>3468.466124132383</v>
       </c>
       <c r="X41" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J42" t="n">
-        <v>94.88738072612962</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K42" t="n">
-        <v>425.3961232894884</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L42" t="n">
-        <v>916.1284561332398</v>
+        <v>373.2380436180322</v>
       </c>
       <c r="M42" t="n">
-        <v>916.1284561332398</v>
+        <v>965.25639787016</v>
       </c>
       <c r="N42" t="n">
-        <v>1538.224419532576</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O42" t="n">
-        <v>2085.10089453277</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P42" t="n">
-        <v>2504.684412958846</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.812354695766</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3214.513823621821</v>
+        <v>1099.422008959557</v>
       </c>
       <c r="C43" t="n">
-        <v>3045.577640693914</v>
+        <v>930.4858260316502</v>
       </c>
       <c r="D43" t="n">
-        <v>2895.461001281578</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="E43" t="n">
-        <v>2895.461001281578</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F43" t="n">
-        <v>2748.571053783668</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="G43" t="n">
-        <v>2581.356858958247</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H43" t="n">
-        <v>2439.484141996677</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I43" t="n">
-        <v>2356.853256396264</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
-        <v>2435.835379285818</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K43" t="n">
-        <v>2695.464106256382</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L43" t="n">
-        <v>3083.225924339516</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M43" t="n">
-        <v>3502.455516383975</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N43" t="n">
-        <v>3917.151382175683</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O43" t="n">
-        <v>4284.173839190712</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P43" t="n">
-        <v>4574.704274026916</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q43" t="n">
-        <v>4692.417407580351</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R43" t="n">
-        <v>4624.558062538853</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S43" t="n">
-        <v>4441.387872277784</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="T43" t="n">
-        <v>4441.387872277784</v>
+        <v>2209.733717050076</v>
       </c>
       <c r="U43" t="n">
-        <v>4152.311658592511</v>
+        <v>2092.305797243952</v>
       </c>
       <c r="V43" t="n">
-        <v>3897.627170386624</v>
+        <v>1837.621309038065</v>
       </c>
       <c r="W43" t="n">
-        <v>3844.944418493608</v>
+        <v>1548.204139001105</v>
       </c>
       <c r="X43" t="n">
-        <v>3616.954867595591</v>
+        <v>1320.214588103087</v>
       </c>
       <c r="Y43" t="n">
-        <v>3396.162288452061</v>
+        <v>1099.422008959557</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.80771165551</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.845194715098</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.579496108348</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.791243510104</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.8053387204961</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8625725399033</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H44" t="n">
+        <v>93.84834815160684</v>
+      </c>
+      <c r="I44" t="n">
         <v>93.84834815160703</v>
       </c>
-      <c r="I44" t="n">
-        <v>95.37264148556113</v>
-      </c>
       <c r="J44" t="n">
-        <v>378.2242654148067</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8840462112148</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.643238436021</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.590348118413</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.930211459572</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.453976171644</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.445555798342</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.29741395589</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.864837502229</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.316842596213</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.284286578419</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.844184570208</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.781297226637</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.012641956523</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.546883695443</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.407551719632</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.4307983814818</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9777691003549</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0433594391036</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.805904433648</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.271346460533</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.5126805064408</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>95.6157353563742</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2623778840289</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2623778840289</v>
+        <v>504.6016741736171</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5879840997877</v>
+        <v>995.3340070173684</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.683964042521</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.281927597127</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.191657836414</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.191657836414</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.453318211297</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.882187067023</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.675480788796</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.647399331981</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.495291100238</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.257934372037</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.406434166504</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.64613540155</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3175.185301335709</v>
+        <v>746.1252502501684</v>
       </c>
       <c r="C46" t="n">
-        <v>3175.185301335709</v>
+        <v>577.1890673222615</v>
       </c>
       <c r="D46" t="n">
-        <v>3025.068661923374</v>
+        <v>427.0724279099258</v>
       </c>
       <c r="E46" t="n">
-        <v>2877.155568340981</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F46" t="n">
-        <v>2730.26562084307</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G46" t="n">
-        <v>2563.06952155795</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H46" t="n">
-        <v>2421.357690400148</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I46" t="n">
-        <v>2339.270987048062</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>2419.507005478386</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K46" t="n">
-        <v>2681.196268003925</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L46" t="n">
-        <v>3071.594862179865</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M46" t="n">
-        <v>3493.6045649109</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N46" t="n">
-        <v>3911.014436570908</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O46" t="n">
-        <v>4280.543717279893</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P46" t="n">
-        <v>4573.219172853452</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q46" t="n">
-        <v>4692.417407580351</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R46" t="n">
-        <v>4692.417407580351</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S46" t="n">
-        <v>4692.417407580351</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="T46" t="n">
-        <v>4472.815942603293</v>
+        <v>2209.733717050076</v>
       </c>
       <c r="U46" t="n">
-        <v>4183.740715947491</v>
+        <v>1920.657503364803</v>
       </c>
       <c r="V46" t="n">
-        <v>3929.056227741604</v>
+        <v>1665.973015158916</v>
       </c>
       <c r="W46" t="n">
-        <v>3639.639057704643</v>
+        <v>1376.555845121956</v>
       </c>
       <c r="X46" t="n">
-        <v>3411.649506806626</v>
+        <v>1148.566294223938</v>
       </c>
       <c r="Y46" t="n">
-        <v>3190.856927663096</v>
+        <v>927.7737150804081</v>
       </c>
     </row>
   </sheetData>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8303,13 +8303,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8695,13 +8695,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>51.31264782908852</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>51.31264782908289</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>51.31264782909102</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>51.31264782908374</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>51.31264782909113</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>51.31264782909096</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>51.312647829084</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>51.31264782908289</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>51.31264782909113</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>51.31264782911234</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>51.31264782909136</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10123,10 +10123,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>51.31264782911239</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10363,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>51.31264782911228</v>
       </c>
       <c r="P32" t="n">
-        <v>51.31264782911137</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>51.31264782909034</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>51.31264782909176</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10834,10 +10834,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>51.31264782909079</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>51.31264782909057</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>144.5132116366184</v>
+        <v>50.47721991512387</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>76.00797063971282</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>200.7243397250779</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>76.00797063971284</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>84.53440796790608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>64.3823468602932</v>
+        <v>80.97502887069022</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>62.34368079027476</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>205.6913979560548</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>125.0895320438854</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.3384883584591</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>76.00797063971558</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>55.88696578547984</v>
       </c>
       <c r="G31" t="n">
         <v>165.5420528771669</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440925</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.1807515910839</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.3384883584591</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>102.4171615007263</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>143.3016600672316</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.453989791954</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.80457674440925</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>67.1807515910839</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>131.9280525533171</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>76.00797063971558</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>202.6548262806037</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>84.16945386597403</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.4539897919539</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>64.048449011738</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>169.9318109403572</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>234.3670739625053</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>164.3170701178246</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>127.5052245859318</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>629451.6440720368</v>
+        <v>629451.6440720366</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>629451.6440720367</v>
+        <v>629451.6440720366</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>629451.6440720368</v>
+        <v>629451.6440720366</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>629451.6440720367</v>
+        <v>629451.6440720366</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>629451.6440720368</v>
+        <v>629451.6440720367</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>629451.6440720368</v>
+        <v>629451.6440720367</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>629451.644072037</v>
+        <v>629451.6440720368</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>629451.6440720368</v>
+        <v>629451.6440720367</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>629451.6440720368</v>
+        <v>629451.644072037</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>629198.2785498288</v>
+        <v>629451.6440720367</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176764</v>
       </c>
       <c r="E2" t="n">
-        <v>786515.9026905957</v>
+        <v>786515.902690595</v>
       </c>
       <c r="F2" t="n">
-        <v>786515.9026905956</v>
+        <v>786515.9026905954</v>
       </c>
       <c r="G2" t="n">
         <v>786515.9026905954</v>
       </c>
       <c r="H2" t="n">
-        <v>786515.9026905956</v>
+        <v>786515.9026905952</v>
       </c>
       <c r="I2" t="n">
-        <v>786515.9026905954</v>
+        <v>786515.9026905955</v>
       </c>
       <c r="J2" t="n">
-        <v>786515.9026905947</v>
+        <v>786515.9026905951</v>
       </c>
       <c r="K2" t="n">
-        <v>786515.9026905947</v>
+        <v>786515.9026905951</v>
       </c>
       <c r="L2" t="n">
         <v>786515.9026905948</v>
       </c>
       <c r="M2" t="n">
-        <v>786515.9026905954</v>
+        <v>786515.9026905951</v>
       </c>
       <c r="N2" t="n">
-        <v>786515.9026905952</v>
+        <v>786515.9026905951</v>
       </c>
       <c r="O2" t="n">
         <v>786515.9026905952</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977558</v>
+        <v>786515.9026905951</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26377,7 +26377,7 @@
         <v>936509.6654545121</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.182651018077205e-09</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,25 +26389,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.21919259</v>
+        <v>176423.219192592</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-1.422429359420979e-09</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901401</v>
+        <v>124307.2113901402</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.548361852765082e-11</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>6612.132574952783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
@@ -26426,40 +26426,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>5069.915760662916</v>
+        <v>5069.915760662929</v>
       </c>
       <c r="F4" t="n">
-        <v>5069.915760662971</v>
+        <v>5069.91576066282</v>
       </c>
       <c r="G4" t="n">
-        <v>5069.915760662918</v>
+        <v>5069.915760662831</v>
       </c>
       <c r="H4" t="n">
-        <v>5069.915760662916</v>
+        <v>5069.915760662834</v>
       </c>
       <c r="I4" t="n">
-        <v>5069.915760662919</v>
+        <v>5069.915760662821</v>
       </c>
       <c r="J4" t="n">
-        <v>5069.915760663172</v>
+        <v>5069.915760662883</v>
       </c>
       <c r="K4" t="n">
-        <v>5069.915760663172</v>
+        <v>5069.915760662901</v>
       </c>
       <c r="L4" t="n">
-        <v>5069.91576066316</v>
+        <v>5069.915760663171</v>
       </c>
       <c r="M4" t="n">
-        <v>5069.915760662909</v>
+        <v>5069.91576066284</v>
       </c>
       <c r="N4" t="n">
-        <v>5069.915760662914</v>
+        <v>5069.915760662831</v>
       </c>
       <c r="O4" t="n">
-        <v>5069.915760662962</v>
+        <v>5069.915760662901</v>
       </c>
       <c r="P4" t="n">
-        <v>4457.648636658129</v>
+        <v>5069.915760662901</v>
       </c>
     </row>
     <row r="5">
@@ -26475,25 +26475,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>100930.0394572385</v>
       </c>
       <c r="F5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="G5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="H5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="I5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="J5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="K5" t="n">
         <v>100930.0394572385</v>
@@ -26502,16 +26502,16 @@
         <v>100930.0394572385</v>
       </c>
       <c r="M5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="N5" t="n">
         <v>100930.0394572386</v>
       </c>
       <c r="O5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="P5" t="n">
-        <v>101146.6105026698</v>
+        <v>100930.0394572385</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-64517.82805270748</v>
+        <v>-64517.8280527071</v>
       </c>
       <c r="C6" t="n">
-        <v>525450.0511618372</v>
+        <v>525450.0511618369</v>
       </c>
       <c r="D6" t="n">
         <v>525450.0511618372</v>
       </c>
       <c r="E6" t="n">
-        <v>-255993.7179818179</v>
+        <v>-256352.6878004616</v>
       </c>
       <c r="F6" t="n">
-        <v>680515.9474726941</v>
+        <v>680156.9776540496</v>
       </c>
       <c r="G6" t="n">
-        <v>680515.947472694</v>
+        <v>680156.9776540508</v>
       </c>
       <c r="H6" t="n">
-        <v>680515.9474726942</v>
+        <v>680156.9776540507</v>
       </c>
       <c r="I6" t="n">
-        <v>680515.947472694</v>
+        <v>680156.977654051</v>
       </c>
       <c r="J6" t="n">
-        <v>504092.728280103</v>
+        <v>503733.7584614585</v>
       </c>
       <c r="K6" t="n">
-        <v>680515.9474726929</v>
+        <v>680156.9776540507</v>
       </c>
       <c r="L6" t="n">
-        <v>680515.9474726932</v>
+        <v>680156.9776540531</v>
       </c>
       <c r="M6" t="n">
-        <v>556208.7360825539</v>
+        <v>555849.7662639105</v>
       </c>
       <c r="N6" t="n">
-        <v>680515.9474726939</v>
+        <v>680156.9776540507</v>
       </c>
       <c r="O6" t="n">
-        <v>680515.9474726936</v>
+        <v>680156.9776540508</v>
       </c>
       <c r="P6" t="n">
-        <v>674751.5429834751</v>
+        <v>680156.9776540507</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,34 +26737,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
+        <v>1358.041048716387</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1358.041048716387</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1358.041048716387</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1358.041048716387</v>
+      </c>
+      <c r="J3" t="n">
         <v>1358.041048716386</v>
       </c>
-      <c r="G3" t="n">
+      <c r="K3" t="n">
         <v>1358.041048716386</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1358.041048716386</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1358.041048716386</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1358.041048716382</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1358.041048716382</v>
       </c>
       <c r="L3" t="n">
         <v>1358.041048716382</v>
@@ -26779,7 +26779,7 @@
         <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26795,10 +26795,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1173.104351895088</v>
+        <v>1173.104351895087</v>
       </c>
       <c r="F4" t="n">
         <v>1173.104351895088</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844992989</v>
+        <v>980.2973844992991</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26983,13 +26983,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.78850912557984e-12</v>
+        <v>-1.580056600612284e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-4.320099833421409e-12</v>
       </c>
       <c r="M3" t="n">
         <v>4.320099833421409e-12</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405321</v>
+        <v>498.8170791405317</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405319</v>
+        <v>498.817079140532</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405321</v>
+        <v>498.8170791405317</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>27.94024844645424</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>246.998917682116</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G4" t="n">
-        <v>157.8478315770614</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>308.0965757313584</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>9.269126437646548</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27833,13 +27833,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X7" t="n">
-        <v>0.7182761106009821</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>12.61014481863913</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>159.2708804221577</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,10 +27912,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>247.176926439076</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724685</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>9.094947017729281e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-8.444841250298201e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-1.904254531837068e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30243,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-1.672078567559044e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30276,10 +30276,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
         <v>0.436756920190194</v>
@@ -31834,43 +31834,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426204</v>
+        <v>394.0223077997498</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q12" t="n">
-        <v>189.6059576586685</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31916,7 +31916,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
         <v>173.1391022273333</v>
@@ -31925,16 +31925,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
         <v>296.1865264282424</v>
@@ -31946,7 +31946,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I15" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>199.0463877591069</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M15" t="n">
-        <v>191.7582174946653</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H16" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R16" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T16" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K17" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U17" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H18" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I18" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745724</v>
+        <v>271.6268178754055</v>
       </c>
       <c r="M18" t="n">
-        <v>489.9223976254215</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982453</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K20" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293309</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U20" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I21" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K21" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745725</v>
+        <v>271.6268178754055</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P21" t="n">
-        <v>225.3907755213035</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K23" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T23" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U23" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H24" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>420.7661933823242</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982453</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>273.0542121815526</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H25" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J25" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K25" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P25" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R25" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T25" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>463.364970687405</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K26" t="n">
-        <v>694.4639760830408</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M26" t="n">
-        <v>958.6336695293279</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P26" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R26" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S26" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T26" t="n">
-        <v>23.89879272665712</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H27" t="n">
-        <v>28.21138103088182</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K27" t="n">
-        <v>471.688653684821</v>
+        <v>199.0463877591103</v>
       </c>
       <c r="L27" t="n">
-        <v>452.0271405576077</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927615</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426184</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P27" t="n">
-        <v>557.7961431982436</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>372.8719498286941</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.25758340862144</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H28" t="n">
-        <v>21.77318271548561</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J28" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K28" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M28" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P28" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q28" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R28" t="n">
-        <v>110.1126397860856</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T28" t="n">
-        <v>10.46359496551966</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>463.364970687405</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K29" t="n">
-        <v>694.4639760830408</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M29" t="n">
-        <v>958.6336695293279</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P29" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S29" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T29" t="n">
-        <v>23.89879272665712</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H30" t="n">
-        <v>28.21138103088182</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I30" t="n">
-        <v>100.5719078530528</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K30" t="n">
-        <v>471.688653684821</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>241.117976280352</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504278</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927615</v>
+        <v>659.9037354456244</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426184</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q30" t="n">
-        <v>372.8719498286941</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R30" t="n">
-        <v>181.3625385436708</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.25758340862144</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H31" t="n">
-        <v>21.77318271548561</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J31" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K31" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M31" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P31" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q31" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R31" t="n">
-        <v>110.1126397860856</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T31" t="n">
-        <v>10.46359496551966</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33496,22 +33496,22 @@
         <v>28.21138103088182</v>
       </c>
       <c r="I33" t="n">
-        <v>100.5719078530528</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>206.8432336203425</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K33" t="n">
-        <v>471.688653684821</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>634.2436048745706</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>740.1323715504278</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>659.9037354456332</v>
       </c>
       <c r="O33" t="n">
         <v>694.9967242426184</v>
@@ -33520,7 +33520,7 @@
         <v>557.7961431982436</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286941</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33736,13 +33736,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>471.6886536848224</v>
+        <v>199.0463877591103</v>
       </c>
       <c r="L36" t="n">
-        <v>406.4292827273625</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M36" t="n">
         <v>740.1323715504302</v>
@@ -33751,13 +33751,13 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,7 +33970,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I39" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>275.9770021735818</v>
@@ -33982,7 +33982,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>603.5820714705304</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N39" t="n">
         <v>759.7214730927639</v>
@@ -33994,10 +33994,10 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286953</v>
+        <v>273.0542121815558</v>
       </c>
       <c r="R39" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.25758340862161</v>
@@ -34207,19 +34207,19 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I42" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>634.2436048745725</v>
+        <v>271.6268178754087</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N42" t="n">
         <v>759.7214730927639</v>
@@ -34231,7 +34231,7 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q42" t="n">
-        <v>189.6059576586681</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>403.6044129846258</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M45" t="n">
-        <v>508.8976500257888</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,13 +35023,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>677.09020389553</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263698</v>
+        <v>796.0449487554586</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>552.400479798176</v>
+        <v>251.4260633553054</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q12" t="n">
-        <v>49.62418357264702</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
         <v>262.2512393642057</v>
@@ -35576,19 +35576,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>333.6317139898036</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M14" t="n">
-        <v>779.6000841311491</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>61.20494878474792</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946982</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M15" t="n">
-        <v>49.62418357264702</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O15" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607201</v>
+        <v>333.6317139898044</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L17" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M17" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O17" t="n">
-        <v>741.0722806160995</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946982</v>
+        <v>133.0724380955314</v>
       </c>
       <c r="M18" t="n">
-        <v>347.7883637034031</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O18" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L19" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K20" t="n">
-        <v>525.6867728671534</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L20" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020582</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136686</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K21" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946983</v>
+        <v>133.0724380955314</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O21" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P21" t="n">
-        <v>91.41636810697327</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L22" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607201</v>
+        <v>333.6317139898036</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L23" t="n">
-        <v>677.0902038955302</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M23" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N23" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P23" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>282.21181360245</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O24" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>133.0724380955311</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L25" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K26" t="n">
-        <v>525.6867728671726</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7775560664365</v>
+        <v>677.0902038955306</v>
       </c>
       <c r="M26" t="n">
-        <v>728.2874363020552</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N26" t="n">
-        <v>744.7323009263669</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O26" t="n">
-        <v>689.7596327870057</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P26" t="n">
-        <v>553.8443926134805</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845831</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K27" t="n">
-        <v>333.847214710462</v>
+        <v>61.20494878475134</v>
       </c>
       <c r="L27" t="n">
-        <v>313.4727607777335</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094282</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O27" t="n">
-        <v>552.4004797981739</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839134</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>232.8901757426726</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K28" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L28" t="n">
-        <v>391.6786041243769</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N28" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O28" t="n">
-        <v>370.7297545606348</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P28" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380603</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7775560664365</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M29" t="n">
-        <v>728.2874363020552</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N29" t="n">
-        <v>796.0449487554793</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870057</v>
+        <v>741.0722806160982</v>
       </c>
       <c r="P29" t="n">
-        <v>553.8443926134805</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R29" t="n">
-        <v>127.3573607845831</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.049527853052794</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K30" t="n">
-        <v>333.847214710462</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>102.5635965004779</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284094</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094282</v>
+        <v>528.5620233622911</v>
       </c>
       <c r="O30" t="n">
-        <v>552.4004797981739</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q30" t="n">
-        <v>232.8901757426726</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R30" t="n">
-        <v>35.68303457970686</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K31" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L31" t="n">
-        <v>391.6786041243769</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N31" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O31" t="n">
-        <v>370.7297545606348</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P31" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>744.7323009263669</v>
       </c>
       <c r="O32" t="n">
-        <v>689.7596327870057</v>
+        <v>741.072280616118</v>
       </c>
       <c r="P32" t="n">
-        <v>605.1570404425919</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q32" t="n">
         <v>367.2547334404093</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.049527853052794</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>80.00560695367581</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K33" t="n">
-        <v>333.847214710462</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>495.6892250946964</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>597.9983376284094</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>528.5620233622999</v>
       </c>
       <c r="O33" t="n">
         <v>552.4004797981739</v>
@@ -37168,7 +37168,7 @@
         <v>423.8217357839134</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>232.8901757426726</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M35" t="n">
-        <v>779.6000841311486</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N35" t="n">
         <v>744.73230092637</v>
@@ -37329,7 +37329,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136759</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>333.8472147104634</v>
+        <v>61.20494878475131</v>
       </c>
       <c r="L36" t="n">
-        <v>267.8749029474884</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M36" t="n">
         <v>597.9983376284119</v>
@@ -37399,13 +37399,13 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37554,10 +37554,10 @@
         <v>728.2874363020583</v>
       </c>
       <c r="N38" t="n">
-        <v>796.0449487554608</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870085</v>
+        <v>741.0722806160991</v>
       </c>
       <c r="P38" t="n">
         <v>553.844392613483</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>149.1393755069151</v>
@@ -37630,7 +37630,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>461.4480375485121</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N39" t="n">
         <v>628.3797610094306</v>
@@ -37642,10 +37642,10 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426738</v>
+        <v>133.0724380955343</v>
       </c>
       <c r="R39" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>474.3741250380626</v>
       </c>
       <c r="L41" t="n">
-        <v>677.0902038955297</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M41" t="n">
         <v>728.2874363020583</v>
@@ -37797,7 +37797,7 @@
         <v>689.7596327870085</v>
       </c>
       <c r="P41" t="n">
-        <v>553.844392613483</v>
+        <v>605.1570404425727</v>
       </c>
       <c r="Q41" t="n">
         <v>367.2547334404112</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>495.6892250946983</v>
+        <v>133.0724380955346</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N42" t="n">
         <v>628.3797610094306</v>
@@ -37879,7 +37879,7 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q42" t="n">
-        <v>49.62418357264656</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>741.0722806160982</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>265.7629740102668</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M45" t="n">
-        <v>366.7636161037705</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3969819.097834043</v>
+        <v>3971638.369525082</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9964927.035287932</v>
+        <v>9964927.035287926</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7451601.610615647</v>
+        <v>7451601.610615645</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>43.82642114172559</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.53815412835747</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>25.31590541686235</v>
+        <v>25.31590541686258</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>105.6875942894366</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>137.0386206496156</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>14.52687838733165</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>15.14483238681376</v>
+        <v>5.983388191319154</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>14.52687838733165</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045442</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876461</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>50.80546296227607</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
@@ -1548,7 +1548,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>235.7082316332965</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045442</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374745</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1703,7 +1703,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>26.36085357345775</v>
       </c>
       <c r="H16" t="n">
-        <v>64.44601915224106</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045442</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9088959876463</v>
+        <v>250.908895987647</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T18" t="n">
         <v>188.3907690366107</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>7.729505493034178</v>
       </c>
       <c r="H19" t="n">
-        <v>64.44601915224105</v>
+        <v>140.453989791954</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440925</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108344</v>
+        <v>67.1807515910839</v>
       </c>
       <c r="S19" t="n">
-        <v>181.3384883584589</v>
+        <v>181.3384883584591</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060082062</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
         <v>250.9088959876463</v>
@@ -2177,7 +2177,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T21" t="n">
         <v>188.3907690366107</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>69.94319885314066</v>
       </c>
       <c r="F22" t="n">
-        <v>64.44601915224102</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440925</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.3384883584589</v>
+        <v>181.3384883584591</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>171.0047611333077</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>83.07736723265648</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.3384883584589</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8432760127591</v>
+        <v>409.8432760127569</v>
       </c>
       <c r="H26" t="n">
-        <v>283.5630920045442</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T26" t="n">
-        <v>199.1970568374736</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U26" t="n">
         <v>250.9088959876463</v>
@@ -2651,7 +2651,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>64.44601915224106</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S28" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T28" t="n">
         <v>217.4819944627618</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>149.7016847493216</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T29" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U29" t="n">
         <v>250.9088959876463</v>
@@ -2888,7 +2888,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>84.56702400647673</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>89.5340822374514</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S31" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T31" t="n">
         <v>217.4819944627618</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H32" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T32" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U32" t="n">
         <v>250.9088959876463</v>
@@ -3125,7 +3125,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H33" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T33" t="n">
         <v>188.3907690366107</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>3.132302579337523</v>
+        <v>29.55527856874174</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S34" t="n">
-        <v>181.3384883584591</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T34" t="n">
         <v>217.4819944627618</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060082152</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T35" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374736</v>
       </c>
       <c r="U35" t="n">
         <v>250.9088959876463</v>
@@ -3362,7 +3362,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>86.27179222793767</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S37" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T37" t="n">
-        <v>141.4740238230462</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
         <v>286.1854515484204</v>
@@ -3523,7 +3523,7 @@
         <v>283.5630920045443</v>
       </c>
       <c r="I38" t="n">
-        <v>1.64365685812864e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T38" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9088959876464</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3599,7 +3599,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>64.44601915223832</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>64.44601915224106</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S40" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T40" t="n">
         <v>217.4819944627618</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634798</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T41" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U41" t="n">
         <v>250.9088959876463</v>
@@ -3836,7 +3836,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3918,7 +3918,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>116.2536406080632</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>86.30285669256448</v>
       </c>
     </row>
     <row r="44">
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T44" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U44" t="n">
         <v>250.9088959876463</v>
@@ -4073,7 +4073,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>18.92873806063739</v>
+        <v>64.44601915224102</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5420528771669</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T46" t="n">
         <v>217.4819944627618</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1222.906241876376</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>894.9862514725855</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>509.1979988743413</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>98.21209408473374</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4330,10 +4330,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.342874726952</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.342874726952</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.342874726952</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.342874726952</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2339.279987383381</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1986.511332113267</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X2" t="n">
-        <v>1613.045573852188</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y2" t="n">
-        <v>1222.906241876376</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="3">
@@ -4412,13 +4412,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482876</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D4" t="n">
-        <v>227.4276970359519</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E4" t="n">
-        <v>79.51460345355875</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1315.737983561872</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="C5" t="n">
-        <v>1315.737983561872</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
-        <v>957.4722849551219</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>571.6840323568777</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>160.6981275672701</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2558.726241877197</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2340.091574849259</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2340.091574849259</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2340.091574849259</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1987.322919579145</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>1613.857161318065</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.337823625994</v>
+        <v>1223.717829342253</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>847.8148076117928</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2681.851280526491</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="T8" t="n">
-        <v>2681.851280526491</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="U8" t="n">
-        <v>2681.851280526491</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>2350.788393182921</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>1998.019737912806</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>1624.553979651726</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1234.414647675915</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4886,7 +4886,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
         <v>670.8219208598711</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4998,16 +4998,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>184.027325963587</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D11" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E11" t="n">
         <v>1205.244725685964</v>
@@ -5035,58 +5035,58 @@
         <v>380.2757138127628</v>
       </c>
       <c r="H11" t="n">
-        <v>93.84834815160698</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I11" t="n">
-        <v>93.84834815160698</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J11" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K11" t="n">
-        <v>842.9746074384019</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L11" t="n">
         <v>1462.494387944177</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N11" t="n">
-        <v>2971.583449151118</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O11" t="n">
-        <v>3654.445485610257</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P11" t="n">
-        <v>4202.751434297605</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q11" t="n">
-        <v>4566.333620403611</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R11" t="n">
-        <v>4692.417407580349</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.950144347198</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.740996026518</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.297666746067</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.234779402496</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.466124132382</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.000365871302</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.86103389549</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H12" t="n">
-        <v>93.84834815160698</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I12" t="n">
-        <v>93.84834815160698</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J12" t="n">
         <v>241.496329903453</v>
       </c>
       <c r="K12" t="n">
-        <v>572.0050724668117</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L12" t="n">
         <v>1062.737405310563</v>
       </c>
       <c r="M12" t="n">
-        <v>1654.755759562691</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="N12" t="n">
-        <v>1654.755759562691</v>
+        <v>1684.833368709899</v>
       </c>
       <c r="O12" t="n">
         <v>1903.667562284443</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.791123359144</v>
+        <v>1003.850710918491</v>
       </c>
       <c r="C13" t="n">
-        <v>847.854940431237</v>
+        <v>834.9145279905844</v>
       </c>
       <c r="D13" t="n">
-        <v>697.7383010189012</v>
+        <v>684.7978885782486</v>
       </c>
       <c r="E13" t="n">
-        <v>549.8252074365081</v>
+        <v>536.8847949958555</v>
       </c>
       <c r="F13" t="n">
-        <v>402.9352599385977</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G13" t="n">
-        <v>235.7210651131766</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H13" t="n">
-        <v>93.84834815160698</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I13" t="n">
-        <v>93.84834815160698</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J13" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4591980117245</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L13" t="n">
-        <v>820.2210160948588</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M13" t="n">
         <v>1239.450608139318</v>
@@ -5217,34 +5217,34 @@
         <v>2021.168930946055</v>
       </c>
       <c r="P13" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q13" t="n">
-        <v>2429.412499335694</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R13" t="n">
-        <v>2429.412499335694</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S13" t="n">
-        <v>2429.412499335694</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T13" t="n">
-        <v>2429.412499335694</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.323376473778</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.638888267892</v>
+        <v>1923.698475827239</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.221718230931</v>
+        <v>1634.281305790278</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.232167332914</v>
+        <v>1406.291754892261</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.439588189384</v>
+        <v>1185.499175748731</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D14" t="n">
         <v>1591.032978284208</v>
@@ -5269,43 +5269,43 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J14" t="n">
-        <v>424.1437450015126</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K14" t="n">
-        <v>893.7741287891952</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L14" t="n">
-        <v>1513.293909294971</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M14" t="n">
-        <v>2234.298471234009</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N14" t="n">
-        <v>2971.583449151116</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O14" t="n">
-        <v>3654.445485610256</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P14" t="n">
-        <v>4202.751434297605</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R14" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T14" t="n">
         <v>4405.740996026519</v>
@@ -5314,16 +5314,16 @@
         <v>4152.297666746068</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H15" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J15" t="n">
-        <v>241.4963299034533</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K15" t="n">
-        <v>302.0892292003537</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L15" t="n">
-        <v>792.8215620441057</v>
+        <v>373.2380436180322</v>
       </c>
       <c r="M15" t="n">
-        <v>1384.839916296234</v>
+        <v>965.25639787016</v>
       </c>
       <c r="N15" t="n">
-        <v>2006.935879695571</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.812354695766</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P15" t="n">
         <v>2553.812354695766</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>495.0957149476028</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C16" t="n">
-        <v>326.1595320196959</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D16" t="n">
-        <v>326.1595320196959</v>
+        <v>344.9790755352643</v>
       </c>
       <c r="E16" t="n">
-        <v>326.1595320196959</v>
+        <v>344.9790755352643</v>
       </c>
       <c r="F16" t="n">
-        <v>326.1595320196959</v>
+        <v>344.9790755352643</v>
       </c>
       <c r="G16" t="n">
-        <v>158.9453371942748</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H16" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J16" t="n">
-        <v>172.8304710411611</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L16" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M16" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N16" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O16" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P16" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q16" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R16" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S16" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T16" t="n">
-        <v>1958.704181747511</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U16" t="n">
-        <v>1669.627968062238</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V16" t="n">
-        <v>1414.943479856351</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W16" t="n">
-        <v>1125.52630981939</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X16" t="n">
-        <v>897.5367589213727</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y16" t="n">
-        <v>676.7441797778425</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="17">
@@ -5491,67 +5491,67 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C17" t="n">
         <v>1949.298676890959</v>
       </c>
       <c r="D17" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E17" t="n">
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963568</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127628</v>
+        <v>380.2757138127632</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I17" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J17" t="n">
-        <v>424.1437450015135</v>
+        <v>424.1437450015398</v>
       </c>
       <c r="K17" t="n">
-        <v>893.7741287891961</v>
+        <v>893.7741287892195</v>
       </c>
       <c r="L17" t="n">
-        <v>1513.293909294972</v>
+        <v>1513.293909294992</v>
       </c>
       <c r="M17" t="n">
-        <v>2234.29847123401</v>
+        <v>2234.298471234026</v>
       </c>
       <c r="N17" t="n">
-        <v>2971.583449151117</v>
+        <v>2971.58344915113</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.445485610257</v>
+        <v>3654.445485610265</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297611</v>
       </c>
       <c r="Q17" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403616</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U17" t="n">
         <v>4152.297666746069</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W17" t="n">
         <v>3468.466124132384</v>
@@ -5560,7 +5560,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="18">
@@ -5570,61 +5570,61 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.6608414294086</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C18" t="n">
-        <v>769.2078121482816</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D18" t="n">
-        <v>620.2734024870304</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E18" t="n">
-        <v>461.0359474815749</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F18" t="n">
-        <v>314.5013895084599</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G18" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H18" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J18" t="n">
-        <v>241.4963299034533</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="K18" t="n">
-        <v>241.4963299034533</v>
+        <v>572.0050724668096</v>
       </c>
       <c r="L18" t="n">
-        <v>373.2380436180293</v>
+        <v>572.0050724668096</v>
       </c>
       <c r="M18" t="n">
-        <v>965.2563978701578</v>
+        <v>965.2563978701667</v>
       </c>
       <c r="N18" t="n">
-        <v>1587.352361269495</v>
+        <v>1587.352361269501</v>
       </c>
       <c r="O18" t="n">
-        <v>2134.22883626969</v>
+        <v>2134.228836269693</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S18" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.906943855537</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U18" t="n">
         <v>2016.877442379908</v>
@@ -5636,7 +5636,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.63647721443</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y18" t="n">
         <v>1111.876178449477</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>495.0957149476028</v>
+        <v>495.0957149475921</v>
       </c>
       <c r="C19" t="n">
-        <v>326.1595320196959</v>
+        <v>326.1595320196852</v>
       </c>
       <c r="D19" t="n">
-        <v>326.1595320196959</v>
+        <v>326.1595320196852</v>
       </c>
       <c r="E19" t="n">
-        <v>326.1595320196959</v>
+        <v>326.1595320196852</v>
       </c>
       <c r="F19" t="n">
-        <v>326.1595320196959</v>
+        <v>326.1595320196852</v>
       </c>
       <c r="G19" t="n">
-        <v>158.9453371942748</v>
+        <v>318.3519507135901</v>
       </c>
       <c r="H19" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520204</v>
       </c>
       <c r="I19" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411604</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117232</v>
       </c>
       <c r="L19" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948563</v>
       </c>
       <c r="M19" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139314</v>
       </c>
       <c r="N19" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.14647393102</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946049</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.699365782252</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="R19" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294188</v>
       </c>
       <c r="S19" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033118</v>
       </c>
       <c r="T19" t="n">
-        <v>1958.704181747511</v>
+        <v>1958.7041817475</v>
       </c>
       <c r="U19" t="n">
-        <v>1669.627968062238</v>
+        <v>1669.627968062227</v>
       </c>
       <c r="V19" t="n">
-        <v>1414.943479856351</v>
+        <v>1414.94347985634</v>
       </c>
       <c r="W19" t="n">
-        <v>1125.52630981939</v>
+        <v>1125.526309819379</v>
       </c>
       <c r="X19" t="n">
-        <v>897.5367589213727</v>
+        <v>897.536758921362</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.7441797778425</v>
+        <v>676.7441797778318</v>
       </c>
     </row>
     <row r="20">
@@ -5740,46 +5740,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127636</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160777</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507206</v>
+        <v>373.3442236507186</v>
       </c>
       <c r="K20" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074383984</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944171</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883217</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.783927800325</v>
+        <v>2920.783927800308</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.645964259464</v>
+        <v>3603.645964259444</v>
       </c>
       <c r="P20" t="n">
-        <v>4151.951912946813</v>
+        <v>4151.95191294679</v>
       </c>
       <c r="Q20" t="n">
-        <v>4515.53409905282</v>
+        <v>4515.534099052795</v>
       </c>
       <c r="R20" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T20" t="n">
         <v>4405.740996026519</v>
@@ -5807,61 +5807,61 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.6608414294086</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C21" t="n">
-        <v>769.2078121482816</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D21" t="n">
-        <v>620.2734024870304</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E21" t="n">
-        <v>461.0359474815749</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F21" t="n">
-        <v>314.5013895084599</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G21" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H21" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J21" t="n">
-        <v>241.4963299034533</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="K21" t="n">
-        <v>241.4963299034533</v>
+        <v>572.0050724668096</v>
       </c>
       <c r="L21" t="n">
-        <v>373.2380436180293</v>
+        <v>1062.737405310559</v>
       </c>
       <c r="M21" t="n">
-        <v>965.2563978701578</v>
+        <v>1654.755759562684</v>
       </c>
       <c r="N21" t="n">
-        <v>1587.352361269495</v>
+        <v>2276.851722962018</v>
       </c>
       <c r="O21" t="n">
-        <v>2134.22883626969</v>
+        <v>2323.251080710521</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710521</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S21" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.906943855537</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U21" t="n">
         <v>2016.877442379908</v>
@@ -5873,7 +5873,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.63647721443</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y21" t="n">
         <v>1111.876178449477</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>495.0957149476028</v>
+        <v>562.9550599890908</v>
       </c>
       <c r="C22" t="n">
-        <v>326.1595320196959</v>
+        <v>394.018877061184</v>
       </c>
       <c r="D22" t="n">
-        <v>326.1595320196959</v>
+        <v>394.018877061184</v>
       </c>
       <c r="E22" t="n">
-        <v>326.1595320196959</v>
+        <v>323.3691812499308</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0625429770282</v>
+        <v>176.4792337520204</v>
       </c>
       <c r="G22" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520204</v>
       </c>
       <c r="H22" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520204</v>
       </c>
       <c r="I22" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411604</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117232</v>
       </c>
       <c r="L22" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948563</v>
       </c>
       <c r="M22" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139314</v>
       </c>
       <c r="N22" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.14647393102</v>
       </c>
       <c r="O22" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946049</v>
       </c>
       <c r="P22" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.699365782252</v>
       </c>
       <c r="Q22" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="R22" t="n">
-        <v>2361.553154294199</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="S22" t="n">
-        <v>2178.382964033129</v>
+        <v>2246.242309074617</v>
       </c>
       <c r="T22" t="n">
-        <v>1958.704181747511</v>
+        <v>2026.563526788999</v>
       </c>
       <c r="U22" t="n">
-        <v>1669.627968062238</v>
+        <v>1737.487313103726</v>
       </c>
       <c r="V22" t="n">
-        <v>1414.943479856351</v>
+        <v>1482.802824897839</v>
       </c>
       <c r="W22" t="n">
-        <v>1125.52630981939</v>
+        <v>1193.385654860878</v>
       </c>
       <c r="X22" t="n">
-        <v>897.5367589213727</v>
+        <v>965.3961039628607</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.7441797778425</v>
+        <v>744.6035248193306</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127628</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I23" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>424.1437450015126</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K23" t="n">
-        <v>893.7741287891952</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L23" t="n">
         <v>1513.293909294971</v>
@@ -6071,22 +6071,22 @@
         <v>241.4963299034533</v>
       </c>
       <c r="K24" t="n">
-        <v>241.4963299034533</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L24" t="n">
-        <v>241.4963299034533</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="M24" t="n">
-        <v>833.5146841555818</v>
+        <v>965.2563978701578</v>
       </c>
       <c r="N24" t="n">
-        <v>1455.610647554919</v>
+        <v>1587.352361269495</v>
       </c>
       <c r="O24" t="n">
-        <v>2002.487122555114</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P24" t="n">
-        <v>2422.070640981191</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.812354695766</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>495.0957149476028</v>
+        <v>571.8714428665047</v>
       </c>
       <c r="C25" t="n">
-        <v>495.0957149476028</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="D25" t="n">
-        <v>344.979075535267</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E25" t="n">
-        <v>344.979075535267</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0625429770282</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G25" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H25" t="n">
         <v>93.84834815160703</v>
@@ -6171,28 +6171,28 @@
         <v>2429.412499335697</v>
       </c>
       <c r="R25" t="n">
-        <v>2361.553154294199</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="S25" t="n">
-        <v>2178.382964033129</v>
+        <v>2246.242309074627</v>
       </c>
       <c r="T25" t="n">
-        <v>1958.704181747511</v>
+        <v>2026.563526789009</v>
       </c>
       <c r="U25" t="n">
-        <v>1669.627968062238</v>
+        <v>1737.487313103736</v>
       </c>
       <c r="V25" t="n">
-        <v>1414.943479856351</v>
+        <v>1482.802824897849</v>
       </c>
       <c r="W25" t="n">
-        <v>1125.52630981939</v>
+        <v>1193.385654860888</v>
       </c>
       <c r="X25" t="n">
-        <v>897.5367589213727</v>
+        <v>965.3961039628709</v>
       </c>
       <c r="Y25" t="n">
-        <v>676.7441797778425</v>
+        <v>744.6035248193408</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D26" t="n">
-        <v>1591.03297828421</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E26" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.258820896358</v>
+        <v>794.2588208963557</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507201</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K26" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L26" t="n">
-        <v>1513.293909294977</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M26" t="n">
-        <v>2234.298471234015</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N26" t="n">
-        <v>2971.583449151121</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.445485610259</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P26" t="n">
-        <v>4202.751434297607</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403614</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R26" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U26" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V26" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W26" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X26" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H27" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I27" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J27" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K27" t="n">
-        <v>302.0892292003568</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L27" t="n">
-        <v>792.8215620441082</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M27" t="n">
-        <v>1384.839916296236</v>
+        <v>1654.755759562693</v>
       </c>
       <c r="N27" t="n">
-        <v>2006.935879695572</v>
+        <v>2276.85172296203</v>
       </c>
       <c r="O27" t="n">
         <v>2553.812354695766</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.8714428665047</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C28" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="D28" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="E28" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="F28" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="G28" t="n">
-        <v>235.7210651131766</v>
+        <v>158.9453371942748</v>
       </c>
       <c r="H28" t="n">
-        <v>93.84834815160704</v>
+        <v>158.9453371942748</v>
       </c>
       <c r="I28" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J28" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M28" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N28" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O28" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P28" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q28" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R28" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S28" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T28" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U28" t="n">
-        <v>1669.627968062235</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V28" t="n">
-        <v>1414.943479856348</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W28" t="n">
-        <v>1125.526309819387</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X28" t="n">
-        <v>974.3124868402746</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.5199076967444</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="29">
@@ -6454,43 +6454,43 @@
         <v>794.2588208963562</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127626</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160683</v>
       </c>
       <c r="I29" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K29" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L29" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O29" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P29" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q29" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R29" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
@@ -6542,28 +6542,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K30" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="L30" t="n">
-        <v>241.496329903453</v>
+        <v>729.4465287982083</v>
       </c>
       <c r="M30" t="n">
-        <v>833.5146841555808</v>
+        <v>1321.464883050337</v>
       </c>
       <c r="N30" t="n">
-        <v>1356.791087284249</v>
+        <v>1321.464883050337</v>
       </c>
       <c r="O30" t="n">
-        <v>1903.667562284443</v>
+        <v>1868.341358050532</v>
       </c>
       <c r="P30" t="n">
-        <v>2323.251080710519</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R30" t="n">
         <v>2553.812354695766</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>495.0957149476001</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C31" t="n">
-        <v>326.1595320196932</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="D31" t="n">
-        <v>326.1595320196932</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="E31" t="n">
-        <v>326.1595320196932</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F31" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G31" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H31" t="n">
         <v>93.84834815160703</v>
@@ -6621,52 +6621,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J31" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M31" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N31" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O31" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R31" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S31" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T31" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U31" t="n">
-        <v>1669.627968062235</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V31" t="n">
-        <v>1414.943479856348</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W31" t="n">
-        <v>1125.526309819387</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X31" t="n">
-        <v>897.5367589213699</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y31" t="n">
-        <v>676.7441797778398</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="32">
@@ -6691,43 +6691,43 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127636</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160777</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J32" t="n">
-        <v>373.3442236507186</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K32" t="n">
-        <v>842.9746074383984</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L32" t="n">
-        <v>1462.494387944171</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M32" t="n">
-        <v>2183.498949883205</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N32" t="n">
-        <v>2920.783927800308</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O32" t="n">
-        <v>3654.445485610265</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P32" t="n">
-        <v>4202.751434297611</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q32" t="n">
-        <v>4566.333620403616</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R32" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T32" t="n">
         <v>4405.740996026519</v>
@@ -6755,61 +6755,61 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C33" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D33" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E33" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F33" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G33" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H33" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I33" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J33" t="n">
-        <v>241.4963299034522</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K33" t="n">
-        <v>241.4963299034522</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="L33" t="n">
-        <v>241.4963299034522</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="M33" t="n">
-        <v>833.5146841555776</v>
+        <v>734.6951238849103</v>
       </c>
       <c r="N33" t="n">
-        <v>1356.791087284254</v>
+        <v>1356.791087284247</v>
       </c>
       <c r="O33" t="n">
-        <v>1903.667562284447</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P33" t="n">
-        <v>2323.251080710521</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S33" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U33" t="n">
         <v>2016.877442379908</v>
@@ -6821,7 +6821,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y33" t="n">
         <v>1111.876178449477</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>562.9550599890908</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C34" t="n">
-        <v>394.018877061184</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="D34" t="n">
-        <v>243.9022376488482</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7382956495174</v>
+        <v>465.2418982115</v>
       </c>
       <c r="F34" t="n">
-        <v>93.84834815160706</v>
+        <v>318.3519507135896</v>
       </c>
       <c r="G34" t="n">
-        <v>93.84834815160706</v>
+        <v>318.3519507135896</v>
       </c>
       <c r="H34" t="n">
-        <v>93.84834815160706</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I34" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J34" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L34" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M34" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N34" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O34" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P34" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q34" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R34" t="n">
-        <v>2429.412499335687</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S34" t="n">
-        <v>2246.242309074617</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T34" t="n">
-        <v>2026.563526788999</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U34" t="n">
-        <v>1737.487313103726</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V34" t="n">
-        <v>1482.802824897839</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W34" t="n">
-        <v>1193.385654860878</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X34" t="n">
-        <v>965.3961039628607</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y34" t="n">
-        <v>744.6035248193306</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D35" t="n">
         <v>1591.032978284208</v>
@@ -6925,64 +6925,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G35" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160708</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160708</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3442236507201</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K35" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.64596425946</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P35" t="n">
-        <v>4151.951912946808</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q35" t="n">
-        <v>4515.534099052815</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.417407580354</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T35" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="36">
@@ -7007,31 +7007,31 @@
         <v>314.5013895084599</v>
       </c>
       <c r="G36" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.84834815160708</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160708</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K36" t="n">
-        <v>302.0892292003568</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="L36" t="n">
-        <v>792.8215620441082</v>
+        <v>732.2286627472052</v>
       </c>
       <c r="M36" t="n">
-        <v>1384.839916296236</v>
+        <v>1324.247016999334</v>
       </c>
       <c r="N36" t="n">
-        <v>2006.935879695572</v>
+        <v>1946.342980398671</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.812354695766</v>
+        <v>2493.219455398866</v>
       </c>
       <c r="P36" t="n">
         <v>2553.812354695766</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.8714428665047</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C37" t="n">
-        <v>402.9352599385978</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="D37" t="n">
-        <v>402.9352599385978</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="E37" t="n">
-        <v>402.9352599385978</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F37" t="n">
-        <v>402.9352599385978</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G37" t="n">
-        <v>235.7210651131767</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H37" t="n">
-        <v>93.84834815160708</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I37" t="n">
-        <v>93.84834815160708</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J37" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L37" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P37" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q37" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R37" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S37" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.479909666413</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.403695981139</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.719207775252</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.302037738292</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X37" t="n">
-        <v>974.3124868402746</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.5199076967444</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.03297828421</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E38" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963582</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127646</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160873</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3442236507201</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K38" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N38" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610259</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297607</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403614</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R38" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X38" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K39" t="n">
-        <v>241.496329903453</v>
+        <v>302.0892292003537</v>
       </c>
       <c r="L39" t="n">
-        <v>241.496329903453</v>
+        <v>792.8215620441057</v>
       </c>
       <c r="M39" t="n">
-        <v>833.5146841555808</v>
+        <v>1384.839916296234</v>
       </c>
       <c r="N39" t="n">
-        <v>1455.610647554917</v>
+        <v>2006.935879695571</v>
       </c>
       <c r="O39" t="n">
-        <v>2002.487122555111</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P39" t="n">
-        <v>2422.070640981187</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.812354695766</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>495.0957149476001</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C40" t="n">
-        <v>326.1595320196932</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0625429770282</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0625429770282</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0625429770282</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="G40" t="n">
-        <v>93.84834815160704</v>
+        <v>158.9453371942748</v>
       </c>
       <c r="H40" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I40" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L40" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M40" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N40" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O40" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R40" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S40" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T40" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U40" t="n">
-        <v>1669.627968062235</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V40" t="n">
-        <v>1414.943479856348</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W40" t="n">
-        <v>1125.526309819387</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X40" t="n">
-        <v>897.5367589213699</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y40" t="n">
-        <v>676.7441797778398</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="41">
@@ -7405,34 +7405,34 @@
         <v>380.2757138127629</v>
       </c>
       <c r="H41" t="n">
-        <v>93.848348151607</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I41" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K41" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N41" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O41" t="n">
-        <v>3603.64596425946</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P41" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R41" t="n">
         <v>4692.417407580351</v>
@@ -7490,22 +7490,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J42" t="n">
-        <v>241.496329903453</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K42" t="n">
-        <v>241.496329903453</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="L42" t="n">
-        <v>373.2380436180322</v>
+        <v>584.580680995359</v>
       </c>
       <c r="M42" t="n">
-        <v>965.25639787016</v>
+        <v>1176.599035247487</v>
       </c>
       <c r="N42" t="n">
-        <v>1587.352361269496</v>
+        <v>1798.694998646824</v>
       </c>
       <c r="O42" t="n">
-        <v>2134.22883626969</v>
+        <v>2345.57147364702</v>
       </c>
       <c r="P42" t="n">
         <v>2553.812354695766</v>
@@ -7548,73 +7548,73 @@
         <v>1099.422008959557</v>
       </c>
       <c r="C43" t="n">
-        <v>930.4858260316502</v>
+        <v>930.48582603165</v>
       </c>
       <c r="D43" t="n">
-        <v>780.3691866193144</v>
+        <v>780.3691866193143</v>
       </c>
       <c r="E43" t="n">
-        <v>632.4560930369213</v>
+        <v>632.4560930369212</v>
       </c>
       <c r="F43" t="n">
-        <v>485.5661455390109</v>
+        <v>485.5661455390108</v>
       </c>
       <c r="G43" t="n">
-        <v>318.3519507135898</v>
+        <v>318.3519507135896</v>
       </c>
       <c r="H43" t="n">
-        <v>176.4792337520202</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I43" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L43" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M43" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N43" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O43" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P43" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q43" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R43" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="S43" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="T43" t="n">
-        <v>2209.733717050076</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="U43" t="n">
-        <v>2092.305797243952</v>
+        <v>2140.336285650424</v>
       </c>
       <c r="V43" t="n">
-        <v>1837.621309038065</v>
+        <v>1885.651797444537</v>
       </c>
       <c r="W43" t="n">
-        <v>1548.204139001105</v>
+        <v>1596.234627407576</v>
       </c>
       <c r="X43" t="n">
-        <v>1320.214588103087</v>
+        <v>1368.245076509559</v>
       </c>
       <c r="Y43" t="n">
-        <v>1099.422008959557</v>
+        <v>1281.070473789797</v>
       </c>
     </row>
     <row r="44">
@@ -7636,46 +7636,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
         <v>380.2757138127627</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160683</v>
       </c>
       <c r="I44" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J44" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507206</v>
       </c>
       <c r="K44" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L44" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M44" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N44" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O44" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P44" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q44" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R44" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T44" t="n">
         <v>4405.740996026519</v>
@@ -7721,28 +7721,28 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I45" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J45" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K45" t="n">
-        <v>504.6016741736171</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="L45" t="n">
-        <v>995.3340070173684</v>
+        <v>732.2286627472052</v>
       </c>
       <c r="M45" t="n">
-        <v>1587.352361269496</v>
+        <v>1324.247016999334</v>
       </c>
       <c r="N45" t="n">
-        <v>1587.352361269496</v>
+        <v>1946.342980398671</v>
       </c>
       <c r="O45" t="n">
-        <v>2134.22883626969</v>
+        <v>2493.219455398866</v>
       </c>
       <c r="P45" t="n">
         <v>2553.812354695766</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>746.1252502501684</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C46" t="n">
-        <v>577.1890673222615</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="D46" t="n">
-        <v>427.0724279099258</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9524904749385</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F46" t="n">
         <v>261.0625429770282</v>
       </c>
       <c r="G46" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H46" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J46" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K46" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L46" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M46" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N46" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O46" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P46" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q46" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R46" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S46" t="n">
-        <v>2429.412499335695</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T46" t="n">
-        <v>2209.733717050076</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U46" t="n">
-        <v>1920.657503364803</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V46" t="n">
-        <v>1665.973015158916</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W46" t="n">
-        <v>1376.555845121956</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X46" t="n">
-        <v>1148.566294223938</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y46" t="n">
-        <v>927.7737150804081</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8701,13 +8701,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>51.31264782908852</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>51.31264782909057</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>51.31264782908289</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>51.31264782909136</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>51.31264782908374</v>
+        <v>51.31264782911228</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.312647829084</v>
+        <v>51.31264782911214</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>51.31264782908289</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>51.31264782908283</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>51.31264782909136</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>51.31264782908309</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>51.31264782908966</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>51.31264782908309</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>51.31264782911228</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>51.31264782908309</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>51.31264782909176</v>
+        <v>51.31264782908309</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>51.31264782909057</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>51.31264782908309</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11077,13 +11077,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>51.31264782908966</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>51.31264782908309</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>51.31264782908966</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>51.312647829084</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>94.61558506065518</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>50.47721991512387</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1811993037092</v>
       </c>
       <c r="H16" t="n">
-        <v>76.00797063971282</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>157.8125473841328</v>
       </c>
       <c r="H19" t="n">
-        <v>76.00797063971284</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>76.49076379342851</v>
       </c>
       <c r="F22" t="n">
-        <v>80.97502887069022</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>140.453989791954</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.1807515910839</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>8.827219048629559</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>62.34368079027476</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.80457674440895</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440902</v>
+        <v>17.35855759216788</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>76.00797063971558</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>64.04844901173563</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>55.88696578547984</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>143.3016600672316</v>
+        <v>116.8786840778274</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>140.453989791954</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440925</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.1807515910839</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>60.1621704186315</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>76.00797063971558</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>84.16945386597403</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>76.00797063971282</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S43" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U43" t="n">
-        <v>169.9318109403572</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>132.2817966595303</v>
       </c>
     </row>
     <row r="44">
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>127.5052245859318</v>
+        <v>81.98794349432815</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>629451.6440720366</v>
+        <v>629451.6440720368</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>629451.6440720366</v>
+        <v>629451.6440720368</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>629451.6440720366</v>
+        <v>629451.6440720368</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>629451.6440720367</v>
+        <v>629451.6440720366</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>629451.6440720367</v>
+        <v>629451.6440720366</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>629451.6440720368</v>
+        <v>629451.6440720367</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>629451.6440720367</v>
+        <v>629451.6440720366</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>629451.6440720367</v>
+        <v>629451.6440720366</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>629451.644072037</v>
+        <v>629451.6440720368</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>629451.6440720367</v>
+        <v>629451.6440720366</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.725617676</v>
       </c>
       <c r="E2" t="n">
-        <v>786515.902690595</v>
+        <v>786515.9026905951</v>
       </c>
       <c r="F2" t="n">
         <v>786515.9026905954</v>
       </c>
       <c r="G2" t="n">
-        <v>786515.9026905954</v>
+        <v>786515.9026905947</v>
       </c>
       <c r="H2" t="n">
-        <v>786515.9026905952</v>
+        <v>786515.9026905948</v>
       </c>
       <c r="I2" t="n">
-        <v>786515.9026905955</v>
+        <v>786515.902690595</v>
       </c>
       <c r="J2" t="n">
         <v>786515.9026905951</v>
       </c>
       <c r="K2" t="n">
+        <v>786515.902690595</v>
+      </c>
+      <c r="L2" t="n">
         <v>786515.9026905951</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786515.9026905948</v>
       </c>
       <c r="M2" t="n">
         <v>786515.9026905951</v>
@@ -26352,10 +26352,10 @@
         <v>786515.9026905951</v>
       </c>
       <c r="O2" t="n">
+        <v>786515.9026905951</v>
+      </c>
+      <c r="P2" t="n">
         <v>786515.9026905952</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786515.9026905951</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,37 +26374,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545121</v>
+        <v>936509.6654545123</v>
       </c>
       <c r="F3" t="n">
-        <v>1.182651018077205e-09</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-1.692154792520645e-09</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.157955800110358e-09</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192592</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.422429359420979e-09</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901402</v>
+        <v>124307.2113901373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>5069.915760662929</v>
+        <v>5069.915760662912</v>
       </c>
       <c r="F4" t="n">
+        <v>5069.915760662921</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5069.915760663171</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5069.915760663169</v>
+      </c>
+      <c r="I4" t="n">
         <v>5069.91576066282</v>
       </c>
-      <c r="G4" t="n">
-        <v>5069.915760662831</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5069.915760662834</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5069.915760662821</v>
-      </c>
       <c r="J4" t="n">
-        <v>5069.915760662883</v>
+        <v>5069.915760662823</v>
       </c>
       <c r="K4" t="n">
-        <v>5069.915760662901</v>
+        <v>5069.915760662823</v>
       </c>
       <c r="L4" t="n">
-        <v>5069.915760663171</v>
+        <v>5069.915760662823</v>
       </c>
       <c r="M4" t="n">
-        <v>5069.91576066284</v>
+        <v>5069.915760662823</v>
       </c>
       <c r="N4" t="n">
-        <v>5069.915760662831</v>
+        <v>5069.915760662823</v>
       </c>
       <c r="O4" t="n">
-        <v>5069.915760662901</v>
+        <v>5069.915760662823</v>
       </c>
       <c r="P4" t="n">
-        <v>5069.915760662901</v>
+        <v>5069.915760662833</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="F5" t="n">
         <v>100930.0394572386</v>
       </c>
       <c r="G5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="H5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="I5" t="n">
         <v>100930.0394572386</v>
@@ -26496,10 +26496,10 @@
         <v>100930.0394572386</v>
       </c>
       <c r="K5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="L5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="M5" t="n">
         <v>100930.0394572386</v>
@@ -26508,10 +26508,10 @@
         <v>100930.0394572386</v>
       </c>
       <c r="O5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="P5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-64517.8280527071</v>
+        <v>-64517.82805270734</v>
       </c>
       <c r="C6" t="n">
+        <v>525450.0511618372</v>
+      </c>
+      <c r="D6" t="n">
         <v>525450.0511618369</v>
       </c>
-      <c r="D6" t="n">
-        <v>525450.0511618372</v>
-      </c>
       <c r="E6" t="n">
-        <v>-256352.6878004616</v>
+        <v>-256029.614963683</v>
       </c>
       <c r="F6" t="n">
-        <v>680156.9776540496</v>
+        <v>680480.0504908296</v>
       </c>
       <c r="G6" t="n">
-        <v>680156.9776540508</v>
+        <v>680480.050490832</v>
       </c>
       <c r="H6" t="n">
-        <v>680156.9776540507</v>
+        <v>680480.0504908287</v>
       </c>
       <c r="I6" t="n">
-        <v>680156.977654051</v>
+        <v>680480.0504908251</v>
       </c>
       <c r="J6" t="n">
-        <v>503733.7584614585</v>
+        <v>504056.8312982364</v>
       </c>
       <c r="K6" t="n">
-        <v>680156.9776540507</v>
+        <v>680480.0504908293</v>
       </c>
       <c r="L6" t="n">
-        <v>680156.9776540531</v>
+        <v>680480.0504908293</v>
       </c>
       <c r="M6" t="n">
-        <v>555849.7662639105</v>
+        <v>556172.8391006921</v>
       </c>
       <c r="N6" t="n">
-        <v>680156.9776540507</v>
+        <v>680480.0504908293</v>
       </c>
       <c r="O6" t="n">
-        <v>680156.9776540508</v>
+        <v>680480.0504908293</v>
       </c>
       <c r="P6" t="n">
-        <v>680156.9776540507</v>
+        <v>680480.0504908294</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26749,37 +26749,37 @@
         <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="I3" t="n">
         <v>1358.041048716387</v>
       </c>
       <c r="J3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="K3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="L3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="M3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="P3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1173.104351895087</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="F4" t="n">
         <v>1173.104351895088</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26971,28 +26971,28 @@
         <v>980.2973844992991</v>
       </c>
       <c r="F3" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.72396447297063e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-12</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.580056600612284e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-4.320099833421409e-12</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>4.320099833421409e-12</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405317</v>
+        <v>498.8170791405324</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.817079140532</v>
+        <v>498.8170791405324</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405317</v>
+        <v>498.8170791405324</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>369.9577488790694</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>27.94024844645424</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>120.1051426060689</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>308.0965757313584</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>37.37709215935593</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>165.3051017946056</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>157.4983735401877</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>159.2708804221577</v>
+        <v>168.4323246176523</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>165.3051017946056</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28070,13 +28070,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>96.92615468724685</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>9.094947017729281e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-8.444841250298201e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-1.904254531837068e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30243,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-1.672078567559044e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30276,10 +30276,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31849,13 +31849,13 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
-        <v>394.0223077997498</v>
+        <v>363.6408844187312</v>
       </c>
       <c r="P12" t="n">
         <v>557.7961431982454</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830438</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293319</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665722</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>199.0463877591069</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745732</v>
+        <v>271.6268178754087</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426213</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862166</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R16" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J17" t="n">
-        <v>463.364970687407</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830438</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687533</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>275.9770021735821</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684821</v>
       </c>
       <c r="L18" t="n">
-        <v>271.6268178754055</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504309</v>
+        <v>539.3575949355104</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927615</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426213</v>
+        <v>694.9967242426184</v>
       </c>
       <c r="P18" t="n">
-        <v>557.796143198246</v>
+        <v>557.7961431982436</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862166</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H19" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265026</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R19" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T19" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J20" t="n">
-        <v>463.364970687407</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830438</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687533</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735821</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684821</v>
       </c>
       <c r="L21" t="n">
-        <v>271.6268178754055</v>
+        <v>634.2436048745706</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927615</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426213</v>
+        <v>189.464282574245</v>
       </c>
       <c r="P21" t="n">
-        <v>557.796143198246</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286941</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862166</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H22" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265026</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R22" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T22" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,13 +32791,13 @@
         <v>275.9770021735821</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504309</v>
+        <v>539.3575949354984</v>
       </c>
       <c r="N24" t="n">
         <v>759.7214730927647</v>
@@ -32809,7 +32809,7 @@
         <v>557.796143198246</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.0542121815526</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J26" t="n">
-        <v>463.3649706874065</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K26" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M26" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P26" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R26" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S26" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T26" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U26" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H27" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K27" t="n">
-        <v>199.0463877591103</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L27" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169052</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H28" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J28" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K28" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M28" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P28" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q28" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R28" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T28" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J29" t="n">
-        <v>463.3649706874065</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K29" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M29" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S29" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T29" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U29" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H30" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>631.433368562455</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N30" t="n">
-        <v>659.9037354456244</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P30" t="n">
-        <v>557.7961431982454</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q30" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S30" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H31" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J31" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K31" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P31" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q31" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R31" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T31" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H32" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J32" t="n">
-        <v>463.364970687405</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K32" t="n">
-        <v>694.4639760830408</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L32" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M32" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N32" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P32" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q32" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R32" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S32" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T32" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H33" t="n">
-        <v>28.21138103088182</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>275.977002173581</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
@@ -33508,31 +33508,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504278</v>
+        <v>640.314633903288</v>
       </c>
       <c r="N33" t="n">
-        <v>659.9037354456332</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426184</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P33" t="n">
-        <v>557.7961431982436</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q33" t="n">
-        <v>372.8719498286941</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.25758340862144</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T33" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H34" t="n">
-        <v>21.77318271548561</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I34" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J34" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K34" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L34" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M34" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N34" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O34" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P34" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q34" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R34" t="n">
-        <v>110.1126397860856</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S34" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T34" t="n">
-        <v>10.46359496551966</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874065</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M35" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S35" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T35" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U35" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K36" t="n">
-        <v>199.0463877591103</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>195.1793561990784</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H37" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J37" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K37" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P37" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q37" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R37" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T37" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874065</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K38" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M38" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S38" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T38" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U38" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H39" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>199.0463877591069</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.0542121815558</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H40" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J40" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K40" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P40" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q40" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R40" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T40" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J41" t="n">
-        <v>463.3649706874065</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K41" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M41" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S41" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T41" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U41" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H42" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>271.6268178754087</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982454</v>
+        <v>344.3187317059937</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H43" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J43" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K43" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P43" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q43" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R43" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T43" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H44" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J44" t="n">
-        <v>463.3649706874065</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K44" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L44" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M44" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N44" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O44" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P44" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q44" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R44" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S44" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T44" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U44" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H45" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K45" t="n">
-        <v>403.6044129846258</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M45" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O45" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P45" t="n">
-        <v>557.7961431982454</v>
+        <v>195.1793561990784</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T45" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H46" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I46" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J46" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K46" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L46" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M46" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N46" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O46" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P46" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q46" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R46" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S46" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T46" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35254,10 +35254,10 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35421,13 +35421,13 @@
         <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>796.0449487554586</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
         <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>553.844392613483</v>
+        <v>605.1570404425736</v>
       </c>
       <c r="Q11" t="n">
         <v>367.2547334404112</v>
@@ -35497,13 +35497,13 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
-        <v>251.4260633553054</v>
+        <v>221.0446399742867</v>
       </c>
       <c r="P12" t="n">
         <v>423.8217357839152</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>333.6317139898036</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664402</v>
+        <v>677.0902038955306</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020592</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.732300926371</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134837</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845846</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>61.20494878474792</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>495.689225094699</v>
+        <v>133.0724380955345</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981769</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606363</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>333.6317139898044</v>
+        <v>333.631713989831</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664402</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020592</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N17" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845846</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.847214710462</v>
       </c>
       <c r="L18" t="n">
-        <v>133.0724380955314</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284126</v>
+        <v>397.223561013492</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094282</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981769</v>
+        <v>552.4004797981739</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839158</v>
+        <v>423.8217357839134</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211065995</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642048</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243784</v>
+        <v>391.6786041243769</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883416</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209149</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606348</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931362</v>
+        <v>293.465085693135</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044792</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664402</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020592</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N20" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R20" t="n">
-        <v>178.6700086136686</v>
+        <v>178.6700086136952</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>333.847214710462</v>
       </c>
       <c r="L21" t="n">
-        <v>133.0724380955314</v>
+        <v>495.6892250946964</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094282</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981769</v>
+        <v>46.86803812980056</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839158</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>232.8901757426726</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211065995</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642048</v>
       </c>
       <c r="L22" t="n">
-        <v>391.6786041243784</v>
+        <v>391.6786041243769</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883416</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209149</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606348</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931362</v>
+        <v>293.465085693135</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044792</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>333.6317139898036</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K23" t="n">
         <v>474.3741250380633</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7775560664402</v>
+        <v>677.090203895523</v>
       </c>
       <c r="M23" t="n">
         <v>728.2874363020592</v>
@@ -36439,13 +36439,13 @@
         <v>149.1393755069154</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284126</v>
+        <v>397.22356101348</v>
       </c>
       <c r="N24" t="n">
         <v>628.3797610094314</v>
@@ -36457,7 +36457,7 @@
         <v>423.8217357839158</v>
       </c>
       <c r="Q24" t="n">
-        <v>133.0724380955311</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L26" t="n">
-        <v>677.0902038955306</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M26" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N26" t="n">
-        <v>744.73230092637</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O26" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P26" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136676</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K27" t="n">
-        <v>61.20494878475134</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L27" t="n">
-        <v>495.6892250946983</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O27" t="n">
-        <v>552.4004797981761</v>
+        <v>279.7582138724608</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K28" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L28" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N28" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O28" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P28" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M29" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N29" t="n">
-        <v>744.73230092637</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O29" t="n">
-        <v>741.0722806160982</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P29" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R29" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136676</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>492.8789887825808</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N30" t="n">
-        <v>528.5620233622911</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>552.4004797981761</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P30" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q30" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K31" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L31" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N31" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O31" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K32" t="n">
-        <v>474.3741250380603</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7775560664365</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M32" t="n">
-        <v>728.2874363020552</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N32" t="n">
-        <v>744.7323009263669</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O32" t="n">
-        <v>741.072280616118</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P32" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q32" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R32" t="n">
-        <v>127.3573607845831</v>
+        <v>178.6700086136676</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>149.1393755069143</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37156,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284094</v>
+        <v>498.1805999812698</v>
       </c>
       <c r="N33" t="n">
-        <v>528.5620233622999</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O33" t="n">
-        <v>552.4004797981739</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P33" t="n">
-        <v>423.8217357839134</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q33" t="n">
-        <v>232.8901757426726</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K34" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L34" t="n">
-        <v>391.6786041243769</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M34" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N34" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O34" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P34" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N35" t="n">
-        <v>744.73230092637</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P35" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R35" t="n">
-        <v>178.6700086136759</v>
+        <v>178.6700086136676</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K36" t="n">
-        <v>61.20494878475131</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>495.6892250946983</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981761</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>61.20494878474815</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K37" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L37" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N37" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O37" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M38" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N38" t="n">
-        <v>744.73230092637</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O38" t="n">
-        <v>741.0722806160991</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P38" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136676</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>61.20494878474792</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O39" t="n">
-        <v>552.4004797981761</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>133.0724380955343</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K40" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L40" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N40" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O40" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M41" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N41" t="n">
-        <v>744.73230092637</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P41" t="n">
-        <v>605.1570404425727</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136676</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>133.0724380955346</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O42" t="n">
-        <v>552.4004797981761</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839152</v>
+        <v>210.3443242916634</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K43" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L43" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N43" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O43" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K44" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L44" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M44" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N44" t="n">
-        <v>744.73230092637</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O44" t="n">
-        <v>741.0722806160982</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P44" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q44" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R44" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136686</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K45" t="n">
-        <v>265.7629740102668</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>495.6892250946983</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M45" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O45" t="n">
-        <v>552.4004797981761</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P45" t="n">
-        <v>423.8217357839152</v>
+        <v>61.20494878474815</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K46" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L46" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M46" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N46" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O46" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P46" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q46" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
